--- a/PhoenixCI/Excel_Template/48030.xlsx
+++ b/PhoenixCI/Excel_Template/48030.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vs\PhoenixCI_Kj\PhoenixCI\Excel_Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{353ED1A4-B0F4-44AB-B6A3-930AC5E96D73}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FB01863-5EBD-4AB0-973F-E2D69CCCB91D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="735" yWindow="3870" windowWidth="18315" windowHeight="10110"/>
   </bookViews>

--- a/PhoenixCI/Excel_Template/48030.xlsx
+++ b/PhoenixCI/Excel_Template/48030.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vs\PhoenixCI_Kj\PhoenixCI\Excel_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FB01863-5EBD-4AB0-973F-E2D69CCCB91D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{353ED1A4-B0F4-44AB-B6A3-930AC5E96D73}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="735" yWindow="3870" windowWidth="18315" windowHeight="10110"/>
   </bookViews>
